--- a/data/case1/14/P_device_13.xlsx
+++ b/data/case1/14/P_device_13.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.0012706409844843928</v>
+        <v>-0.032510287630593084</v>
       </c>
       <c r="B1" s="0">
-        <v>0.0012706400155476916</v>
+        <v>0.032510286740648264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0053738612237069537</v>
+        <v>0.010791408273078798</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0053738622274655014</v>
+        <v>-0.010791409188199368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.038735788392462861</v>
+        <v>0.0042568731580106111</v>
       </c>
       <c r="B3" s="0">
-        <v>0.038735787467826174</v>
+        <v>-0.0042568740807759986</v>
       </c>
     </row>
     <row r="4">
